--- a/やることリスト.xlsx
+++ b/やることリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouts\OneDrive\デスクトップ\3DGameC++\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E060C97A-71A0-4C9C-887D-65A052E09112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94B47C8-16F8-4714-B2E7-38D9FB41856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5D8F2F1-7005-41F6-8B2D-FBE4DEAACF0C}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="16710" windowHeight="12570" xr2:uid="{C5D8F2F1-7005-41F6-8B2D-FBE4DEAACF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -113,30 +113,167 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カメラの移動</t>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理演算の実装</t>
+    <rPh sb="0" eb="4">
+      <t>ブツリエンザン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　弾道落下</t>
+    <rPh sb="1" eb="5">
+      <t>ダンドウラッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　風の影響</t>
+    <rPh sb="1" eb="2">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　跳弾</t>
+    <rPh sb="1" eb="3">
+      <t>チョウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　通常</t>
+    <rPh sb="1" eb="3">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　覗き込み</t>
+    <rPh sb="1" eb="2">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターゲットオブジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　当たり判定</t>
+    <rPh sb="1" eb="2">
+      <t>ア</t>
+    </rPh>
     <rPh sb="4" eb="6">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　移動</t>
+    <rPh sb="1" eb="3">
       <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>モデルの移動</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カメラの正面をモデルの正面とする</t>
-    <rPh sb="4" eb="6">
-      <t>ショウメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショウメン</t>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　ブレ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　弾頭追跡</t>
+    <rPh sb="1" eb="3">
+      <t>ダントウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　息止め</t>
+    <rPh sb="1" eb="2">
+      <t>イキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　スタート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　終了</t>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　リスタート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　弾数</t>
+    <rPh sb="1" eb="3">
+      <t>ダンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　オーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ポーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　生成</t>
+    <rPh sb="1" eb="3">
+      <t>セイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -520,11 +657,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D020D099-CA69-44C3-87B0-7051AD0BEE02}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -567,11 +704,9 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -582,10 +717,10 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -597,10 +732,10 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -611,8 +746,12 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -622,8 +761,12 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -633,7 +776,9 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -644,8 +789,12 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -655,8 +804,12 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -666,8 +819,12 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -677,7 +834,9 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -688,8 +847,12 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -699,8 +862,12 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -710,8 +877,12 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -721,7 +892,9 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -732,8 +905,12 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -743,7 +920,9 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -754,8 +933,12 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -765,8 +948,12 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -776,8 +963,12 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -787,8 +978,12 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -798,7 +993,9 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -809,8 +1006,12 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -820,8 +1021,12 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -831,8 +1036,12 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1225,6 +1434,39 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1233,6 +1475,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101000F94F867C75D8542ADC70A07AF775E1A" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7777ae6b53aba9360917b42624377e94">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4c90ce6b-a119-4a1b-9ca9-22ee8dfef1e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4578be89e5f8aa9507cf35712b7b2b7" ns2:_="">
     <xsd:import namespace="4c90ce6b-a119-4a1b-9ca9-22ee8dfef1e0"/>
@@ -1364,22 +1621,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D1D9CB8-7416-44A6-A71E-0108F7117CE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7B15EED-5AF1-4BA8-8080-BEE45DA25204}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A559648E-9950-420D-BB49-7A7BE4E94E68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1395,21 +1654,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7B15EED-5AF1-4BA8-8080-BEE45DA25204}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D1D9CB8-7416-44A6-A71E-0108F7117CE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>